--- a/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -207,40 +207,61 @@
     <t>德洛莉丝</t>
   </si>
   <si>
+    <t>有人选择看到这世界上的丑恶，我选择看到美好。但美好是种诱惑。</t>
+  </si>
+  <si>
     <t>但为人善良、长相美丽，她是一个典型的从偏远小镇来的乡下女孩</t>
   </si>
   <si>
     <t>怀亚特</t>
   </si>
   <si>
+    <t>这残暴的欢愉，终将以残暴结束。</t>
+  </si>
+  <si>
     <t>魔法世界的毁灭者，一直存在人们的口头之中</t>
   </si>
   <si>
     <t>梅芙</t>
   </si>
   <si>
+    <t>人们在讨论“有朝一日”的时候，其真正意思就是“永不”。</t>
+  </si>
+  <si>
     <t>村头的寡妇</t>
   </si>
   <si>
     <t>幽灵</t>
   </si>
   <si>
+    <t>想要扮演上帝，就必然要和魔鬼打交道。</t>
+  </si>
+  <si>
     <t>黑暗生物</t>
   </si>
   <si>
     <t>穷奇</t>
   </si>
   <si>
+    <t>呜啦啦，呜啦啦</t>
+  </si>
+  <si>
     <t>发出的声音如同狗叫，吃人</t>
   </si>
   <si>
     <t>夜精灵</t>
   </si>
   <si>
+    <t>你好啊，新来的</t>
+  </si>
+  <si>
     <t>暗夜精灵，你可能会在深夜的深林中遇到它们</t>
   </si>
   <si>
     <t>王城护卫</t>
+  </si>
+  <si>
+    <t>永远不要开始你不愿意坚持到底的事情。</t>
   </si>
   <si>
     <t>城堡的守护者</t>
@@ -256,7 +277,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +298,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -284,6 +319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -292,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,7 +349,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,107 +448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -435,187 +462,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,11 +671,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +710,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -675,21 +750,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,39 +768,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -749,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,137 +788,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +927,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1223,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1309,7 +1339,7 @@
       <c r="J2" s="1">
         <v>20000</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1805,7 +1835,7 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1822,103 +1852,229 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
+    <row r="18" spans="1:19">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" t="s">
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3">
         <v>200</v>
       </c>
-      <c r="M19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" t="s">
-        <v>67</v>
-      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
@@ -299,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -339,24 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,14 +348,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,9 +362,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +378,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,14 +400,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,21 +454,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -460,11 +461,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,169 +495,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,11 +713,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,17 +752,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,24 +776,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -803,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E11" s="1">
         <v>107</v>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
@@ -299,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -331,24 +331,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,24 +378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +407,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -426,38 +458,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,13 +489,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,169 +561,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,16 +698,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -738,6 +747,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -754,9 +778,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,32 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,34 +815,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,97 +848,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1937,7 +1937,7 @@
         <v>107</v>
       </c>
       <c r="F11" s="1">
-        <v>107</v>
+        <v>1007</v>
       </c>
       <c r="G11" s="1">
         <v>21</v>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -240,13 +240,13 @@
     <t>相对于人短暂的一生，龙族的长寿有着绝对的优势。对凡人来讲，不是你在支配时间，而是时间在主宰你！</t>
   </si>
   <si>
+    <t>拉格纳罗斯</t>
+  </si>
+  <si>
+    <t>吾即是炎王之主。</t>
+  </si>
+  <si>
     <t>1,3</t>
-  </si>
-  <si>
-    <t>拉格纳罗斯</t>
-  </si>
-  <si>
-    <t>吾即是炎王之主。</t>
   </si>
   <si>
     <t>[{"chance":50,"thingId":1006}]</t>
@@ -301,8 +301,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -331,63 +331,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,8 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +369,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,8 +421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +431,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,22 +454,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,43 +489,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +597,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,19 +645,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,103 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,26 +698,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,23 +742,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,13 +763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,7 +782,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
@@ -2338,8 +2338,8 @@
       <c r="O17" s="1">
         <v>47</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>66</v>
+      <c r="P17" s="1">
+        <v>35</v>
       </c>
       <c r="Q17" s="1">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1">
@@ -2390,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N18" s="1">
         <v>158</v>
@@ -2399,7 +2399,7 @@
         <v>48</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -2459,7 +2459,7 @@
         <v>49</v>
       </c>
       <c r="P19" s="1">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>51</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="1">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>52</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="1">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>55</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="1">
         <v>1</v>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -114,7 +114,7 @@
     <t>欢迎来到新手村！</t>
   </si>
   <si>
-    <t>[{"chance":50,"thingId":1004}]</t>
+    <t>[{"chance":50,"toolsId":10}]</t>
   </si>
   <si>
     <t>黑衣人</t>
@@ -123,6 +123,9 @@
     <t>十步杀一人，千里不留行。</t>
   </si>
   <si>
+    <t>[{"chance":50,"toolsId":14}]</t>
+  </si>
+  <si>
     <t>灵魂医者</t>
   </si>
   <si>
@@ -198,7 +201,7 @@
     <t>哇哇</t>
   </si>
   <si>
-    <t>[{"chance":100,"thingId":1001},{"chance":100,"thingId":1007},{"chance":100,"thingId":1008}]</t>
+    <t>[{"chance":100,"toolsId":11},{"chance":100,"toolsId":28},{"chance":100,"toolsId":27}]</t>
   </si>
   <si>
     <t>软泥怪</t>
@@ -207,7 +210,7 @@
     <t>哇哇哇</t>
   </si>
   <si>
-    <t>[{"chance":50,"thingId":1004},{"chance":100,"thingId":1006}]</t>
+    <t>[{"chance":50,"toolsId":14},{"chance":100,"toolsId":16}]</t>
   </si>
   <si>
     <t>伊利丹</t>
@@ -216,7 +219,7 @@
     <t>你们这是自寻死路！！</t>
   </si>
   <si>
-    <t>[{"chance":100,"thingId":1002}]</t>
+    <t>[{"chance":100,"toolsId":12}]</t>
   </si>
   <si>
     <t>疯狂的地精</t>
@@ -225,13 +228,16 @@
     <t>时间就是金钱！</t>
   </si>
   <si>
+    <t>[{"chance":50,"toolsId":1}]</t>
+  </si>
+  <si>
     <t>鱼人</t>
   </si>
   <si>
     <t>噢哇</t>
   </si>
   <si>
-    <t>[{"chance":50,"thingId":1005}]</t>
+    <t>[{"chance":50,"toolsId":15}]</t>
   </si>
   <si>
     <t>奈法利安</t>
@@ -249,7 +255,7 @@
     <t>1,3</t>
   </si>
   <si>
-    <t>[{"chance":50,"thingId":1006}]</t>
+    <t>[{"chance":50,"toolsId":16}]</t>
   </si>
   <si>
     <t>龙人</t>
@@ -258,7 +264,7 @@
     <t>为了黑龙军团！为了耐萨里奥！</t>
   </si>
   <si>
-    <t>[{"chance":50,"thingId":1008}]</t>
+    <t>[{"chance":50,"toolsId":18}]</t>
   </si>
   <si>
     <t>火元素</t>
@@ -279,13 +285,16 @@
     <t>霜之哀刃饿了。</t>
   </si>
   <si>
-    <t>[{"chance":100,"thingId":1007},{"chance":100,"thingId":1003}]</t>
+    <t>[{"chance":100,"toolsId":17},{"chance":100,"toolsId":13}]</t>
   </si>
   <si>
     <t>憎恶</t>
   </si>
   <si>
     <t>这儿还有活人。</t>
+  </si>
+  <si>
+    <t>[{"chance":50,"toolsId":4}]</t>
   </si>
   <si>
     <t>灵魂兽</t>
@@ -300,8 +309,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -338,8 +347,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +410,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,114 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -489,187 +498,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,43 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,17 +746,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +766,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -795,6 +789,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1483,7 +1492,7 @@
         <v>30000</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U3" s="5">
         <v>3</v>
@@ -1495,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -1526,7 +1535,7 @@
         <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1">
         <v>-1</v>
@@ -1555,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -1586,7 +1595,7 @@
         <v>25</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1">
         <v>-2</v>
@@ -1609,7 +1618,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1617,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -1648,7 +1657,7 @@
         <v>26</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" s="1">
         <v>-3</v>
@@ -1671,7 +1680,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1679,7 +1688,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
@@ -1710,7 +1719,7 @@
         <v>27</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7" s="1">
         <v>-4</v>
@@ -1733,7 +1742,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1741,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
@@ -1772,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8" s="1">
         <v>-5</v>
@@ -1795,7 +1804,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1803,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
@@ -1834,7 +1843,7 @@
         <v>29</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" s="1">
         <v>-6</v>
@@ -1857,7 +1866,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1865,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
@@ -1896,7 +1905,7 @@
         <v>30</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N10" s="1">
         <v>150</v>
@@ -1919,7 +1928,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1927,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -1958,7 +1967,7 @@
         <v>31</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="1">
         <v>150</v>
@@ -1981,15 +1990,15 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="12" ht="172.8" spans="1:22">
+    <row r="12" ht="158.4" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
@@ -2020,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N12" s="1">
         <v>150</v>
@@ -2041,7 +2050,7 @@
         <v>20000</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -2051,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1">
@@ -2082,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N13" s="1">
         <v>151</v>
@@ -2103,7 +2112,7 @@
         <v>20000</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -2113,7 +2122,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -2144,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N14" s="1">
         <v>154</v>
@@ -2165,7 +2174,7 @@
         <v>30000</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -2175,7 +2184,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -2206,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N15" s="1">
         <v>155</v>
@@ -2227,7 +2236,7 @@
         <v>10000</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -2237,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2268,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N16" s="1">
         <v>156</v>
@@ -2289,7 +2298,7 @@
         <v>10000</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -2299,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1">
@@ -2330,7 +2339,7 @@
         <v>17</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N17" s="1">
         <v>157</v>
@@ -2349,7 +2358,7 @@
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -2359,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1">
@@ -2390,7 +2399,7 @@
         <v>18</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N18" s="1">
         <v>158</v>
@@ -2399,7 +2408,7 @@
         <v>48</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
@@ -2409,7 +2418,7 @@
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -2419,7 +2428,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -2450,7 +2459,7 @@
         <v>19</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N19" s="1">
         <v>159</v>
@@ -2469,7 +2478,7 @@
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -2479,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -2510,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N20" s="1">
         <v>160</v>
@@ -2529,7 +2538,7 @@
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -2539,7 +2548,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -2570,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N21" s="1">
         <v>161</v>
@@ -2579,7 +2588,7 @@
         <v>51</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="1">
         <v>1</v>
@@ -2589,17 +2598,17 @@
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" ht="91.2" spans="1:22">
+    <row r="22" ht="79.8" spans="1:22">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -2630,7 +2639,7 @@
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N22" s="1">
         <v>162</v>
@@ -2639,7 +2648,7 @@
         <v>52</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="1">
         <v>1</v>
@@ -2649,7 +2658,7 @@
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -2659,7 +2668,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -2690,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N23" s="1">
         <v>163</v>
@@ -2709,7 +2718,7 @@
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
@@ -2719,7 +2728,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -2750,7 +2759,7 @@
         <v>25</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N24" s="1">
         <v>165</v>
@@ -2759,7 +2768,7 @@
         <v>55</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="1">
         <v>1</v>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/sceneObject.xlsx
@@ -308,9 +308,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -341,7 +341,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,29 +386,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,15 +415,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +439,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -432,7 +447,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,36 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -498,187 +498,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +707,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,7 +735,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,47 +799,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1">
-        <v>450</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -2097,7 +2097,7 @@
         <v>151</v>
       </c>
       <c r="O13" s="1">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
